--- a/data/pca/factorExposure/factorExposure_2012-04-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-05.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01612793609993658</v>
+        <v>-0.01643814908973106</v>
       </c>
       <c r="C2">
-        <v>-0.03534828144635281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02921002343167891</v>
+      </c>
+      <c r="D2">
+        <v>-0.0008510432189194451</v>
+      </c>
+      <c r="E2">
+        <v>-0.009482277966209396</v>
+      </c>
+      <c r="F2">
+        <v>0.007587556330841368</v>
+      </c>
+      <c r="G2">
+        <v>0.004567829190158942</v>
+      </c>
+      <c r="H2">
+        <v>-0.05863479073657533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07531798680070666</v>
+        <v>-0.08827830213903799</v>
       </c>
       <c r="C4">
-        <v>-0.05535743901402186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.03853220837692483</v>
+      </c>
+      <c r="D4">
+        <v>-0.06598612966203908</v>
+      </c>
+      <c r="E4">
+        <v>-0.01585912432046688</v>
+      </c>
+      <c r="F4">
+        <v>0.02891535647184816</v>
+      </c>
+      <c r="G4">
+        <v>0.009379955330014103</v>
+      </c>
+      <c r="H4">
+        <v>0.04591345405000844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1068329463970495</v>
+        <v>-0.1190366324697879</v>
       </c>
       <c r="C6">
-        <v>-0.05623757326161549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.03311976682691258</v>
+      </c>
+      <c r="D6">
+        <v>-0.009398530228360083</v>
+      </c>
+      <c r="E6">
+        <v>0.007664686681226015</v>
+      </c>
+      <c r="F6">
+        <v>0.06186579099560106</v>
+      </c>
+      <c r="G6">
+        <v>0.02368336528679492</v>
+      </c>
+      <c r="H6">
+        <v>-0.09533470760365424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04936281569024712</v>
+        <v>-0.064579784593796</v>
       </c>
       <c r="C7">
-        <v>-0.02766241696232654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.01898942714873127</v>
+      </c>
+      <c r="D7">
+        <v>-0.0459068242646643</v>
+      </c>
+      <c r="E7">
+        <v>-0.0381039648865289</v>
+      </c>
+      <c r="F7">
+        <v>0.03536165549453209</v>
+      </c>
+      <c r="G7">
+        <v>-0.03981760778190787</v>
+      </c>
+      <c r="H7">
+        <v>0.02203602462195301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03617104628904001</v>
+        <v>-0.04062196292395998</v>
       </c>
       <c r="C8">
-        <v>-0.01202635801631385</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.007871085765862009</v>
+      </c>
+      <c r="D8">
+        <v>-0.02295671255114842</v>
+      </c>
+      <c r="E8">
+        <v>-0.03317706650396169</v>
+      </c>
+      <c r="F8">
+        <v>0.04818550159776819</v>
+      </c>
+      <c r="G8">
+        <v>0.041755377568318</v>
+      </c>
+      <c r="H8">
+        <v>0.005773959260985974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06814882541888195</v>
+        <v>-0.07959413065322922</v>
       </c>
       <c r="C9">
-        <v>-0.04573208488956905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02924493629268213</v>
+      </c>
+      <c r="D9">
+        <v>-0.06270686936748383</v>
+      </c>
+      <c r="E9">
+        <v>-0.03728373035559222</v>
+      </c>
+      <c r="F9">
+        <v>0.03168006014886918</v>
+      </c>
+      <c r="G9">
+        <v>0.01183044956674735</v>
+      </c>
+      <c r="H9">
+        <v>0.05690694444844775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0294808855312505</v>
+        <v>-0.03562956525170468</v>
       </c>
       <c r="C10">
-        <v>-0.03469457857168285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.04174973903684899</v>
+      </c>
+      <c r="D10">
+        <v>0.1715773488762092</v>
+      </c>
+      <c r="E10">
+        <v>-0.05374976133841052</v>
+      </c>
+      <c r="F10">
+        <v>0.04177978342633621</v>
+      </c>
+      <c r="G10">
+        <v>-0.04011686275135611</v>
+      </c>
+      <c r="H10">
+        <v>-0.03130453962712913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07061801323933706</v>
+        <v>-0.07663320251117713</v>
       </c>
       <c r="C11">
-        <v>-0.04768043141313683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.02697647187614223</v>
+      </c>
+      <c r="D11">
+        <v>-0.06221549805410316</v>
+      </c>
+      <c r="E11">
+        <v>0.002867286521891961</v>
+      </c>
+      <c r="F11">
+        <v>0.02576656663449213</v>
+      </c>
+      <c r="G11">
+        <v>0.001858216214801829</v>
+      </c>
+      <c r="H11">
+        <v>0.1046755131879802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05709302542812725</v>
+        <v>-0.06667098189950874</v>
       </c>
       <c r="C12">
-        <v>-0.05143890419735438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03535170851542668</v>
+      </c>
+      <c r="D12">
+        <v>-0.04921315835429353</v>
+      </c>
+      <c r="E12">
+        <v>-0.0145859750544067</v>
+      </c>
+      <c r="F12">
+        <v>0.01586271361282604</v>
+      </c>
+      <c r="G12">
+        <v>0.002504276101911227</v>
+      </c>
+      <c r="H12">
+        <v>0.05994276984036222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0592067301808604</v>
+        <v>-0.0650941798821518</v>
       </c>
       <c r="C13">
-        <v>-0.04187865160900583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.02597792032286539</v>
+      </c>
+      <c r="D13">
+        <v>-0.04278820597596512</v>
+      </c>
+      <c r="E13">
+        <v>-0.01445258378094196</v>
+      </c>
+      <c r="F13">
+        <v>0.003626864401347271</v>
+      </c>
+      <c r="G13">
+        <v>8.972411555651093e-05</v>
+      </c>
+      <c r="H13">
+        <v>0.0509625614792818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03311765737615002</v>
+        <v>-0.04186785424062429</v>
       </c>
       <c r="C14">
-        <v>-0.03210166585550567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.02795078391098416</v>
+      </c>
+      <c r="D14">
+        <v>-0.003754981208749083</v>
+      </c>
+      <c r="E14">
+        <v>-0.03076857027448008</v>
+      </c>
+      <c r="F14">
+        <v>0.01496278509448285</v>
+      </c>
+      <c r="G14">
+        <v>0.01721165087793667</v>
+      </c>
+      <c r="H14">
+        <v>0.06030687954659538</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04010278766874902</v>
+        <v>-0.03990257840048071</v>
       </c>
       <c r="C15">
-        <v>-0.01126529797011575</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.002890268808401025</v>
+      </c>
+      <c r="D15">
+        <v>-0.002824507500632553</v>
+      </c>
+      <c r="E15">
+        <v>-0.04058928028486088</v>
+      </c>
+      <c r="F15">
+        <v>-0.005209327215759657</v>
+      </c>
+      <c r="G15">
+        <v>0.02776462196245556</v>
+      </c>
+      <c r="H15">
+        <v>0.03936460000669317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06016502926492685</v>
+        <v>-0.06991539776578884</v>
       </c>
       <c r="C16">
-        <v>-0.04339634365857523</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.0279102231197045</v>
+      </c>
+      <c r="D16">
+        <v>-0.0628034994404911</v>
+      </c>
+      <c r="E16">
+        <v>-0.008047414362846672</v>
+      </c>
+      <c r="F16">
+        <v>0.0213931957807864</v>
+      </c>
+      <c r="G16">
+        <v>-0.002203639351713851</v>
+      </c>
+      <c r="H16">
+        <v>0.06337539499481758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0645282471916802</v>
+        <v>-0.0636061864817497</v>
       </c>
       <c r="C20">
-        <v>-0.03328558741711828</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01378234910335979</v>
+      </c>
+      <c r="D20">
+        <v>-0.03923338989028887</v>
+      </c>
+      <c r="E20">
+        <v>-0.03323200787581436</v>
+      </c>
+      <c r="F20">
+        <v>0.01690145378725593</v>
+      </c>
+      <c r="G20">
+        <v>0.01514983873152199</v>
+      </c>
+      <c r="H20">
+        <v>0.05994717358688893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02295977818887759</v>
+        <v>-0.02372174287094647</v>
       </c>
       <c r="C21">
-        <v>0.002429553153362144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009451350379065466</v>
+      </c>
+      <c r="D21">
+        <v>-0.02964548110966516</v>
+      </c>
+      <c r="E21">
+        <v>-0.04009619792792232</v>
+      </c>
+      <c r="F21">
+        <v>-0.0124604315525243</v>
+      </c>
+      <c r="G21">
+        <v>0.009956786788972105</v>
+      </c>
+      <c r="H21">
+        <v>-0.04708474842233957</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07183301086794557</v>
+        <v>-0.06908784812931459</v>
       </c>
       <c r="C22">
-        <v>-0.06054283046925916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03981870694481172</v>
+      </c>
+      <c r="D22">
+        <v>-0.06981953483430491</v>
+      </c>
+      <c r="E22">
+        <v>-0.5677614505224411</v>
+      </c>
+      <c r="F22">
+        <v>-0.242652031336059</v>
+      </c>
+      <c r="G22">
+        <v>-0.04875738295570015</v>
+      </c>
+      <c r="H22">
+        <v>-0.1815611994452833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07283366067048934</v>
+        <v>-0.06970251533985945</v>
       </c>
       <c r="C23">
-        <v>-0.05948281422445499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03851802479277899</v>
+      </c>
+      <c r="D23">
+        <v>-0.07077601119970814</v>
+      </c>
+      <c r="E23">
+        <v>-0.5673494111071201</v>
+      </c>
+      <c r="F23">
+        <v>-0.2415714286587657</v>
+      </c>
+      <c r="G23">
+        <v>-0.04704065936113125</v>
+      </c>
+      <c r="H23">
+        <v>-0.1771326727857851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.06983508168517369</v>
+        <v>-0.07971884271554647</v>
       </c>
       <c r="C24">
-        <v>-0.05178647025539686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03349482831233074</v>
+      </c>
+      <c r="D24">
+        <v>-0.05951919601052387</v>
+      </c>
+      <c r="E24">
+        <v>-0.01891197779210375</v>
+      </c>
+      <c r="F24">
+        <v>0.03085293747826317</v>
+      </c>
+      <c r="G24">
+        <v>0.008997264439741319</v>
+      </c>
+      <c r="H24">
+        <v>0.0717503966298078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07009655598451493</v>
+        <v>-0.07714764891864058</v>
       </c>
       <c r="C25">
-        <v>-0.05747307770230115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03792092619801705</v>
+      </c>
+      <c r="D25">
+        <v>-0.05185337738902219</v>
+      </c>
+      <c r="E25">
+        <v>-0.01983217477743858</v>
+      </c>
+      <c r="F25">
+        <v>0.02491965269646714</v>
+      </c>
+      <c r="G25">
+        <v>0.02053814510226594</v>
+      </c>
+      <c r="H25">
+        <v>0.07342714164518696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04500124426231072</v>
+        <v>-0.04716500950922169</v>
       </c>
       <c r="C26">
-        <v>-0.009896744165491722</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.001063455153935933</v>
+      </c>
+      <c r="D26">
+        <v>-0.01781114640340323</v>
+      </c>
+      <c r="E26">
+        <v>-0.05252558387559644</v>
+      </c>
+      <c r="F26">
+        <v>0.01963907430851299</v>
+      </c>
+      <c r="G26">
+        <v>-0.0006335699920144547</v>
+      </c>
+      <c r="H26">
+        <v>0.06271163167006813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05489445051558085</v>
+        <v>-0.0645939230517584</v>
       </c>
       <c r="C28">
-        <v>-0.07407579811757513</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.0823520553195201</v>
+      </c>
+      <c r="D28">
+        <v>0.3074728036790055</v>
+      </c>
+      <c r="E28">
+        <v>-0.02716396580424423</v>
+      </c>
+      <c r="F28">
+        <v>0.05645252996062823</v>
+      </c>
+      <c r="G28">
+        <v>0.02175092817331038</v>
+      </c>
+      <c r="H28">
+        <v>-0.04567005258786038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04052196716709885</v>
+        <v>-0.04851963427872698</v>
       </c>
       <c r="C29">
-        <v>-0.03239101581103244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02588158070752356</v>
+      </c>
+      <c r="D29">
+        <v>-0.004292245123220914</v>
+      </c>
+      <c r="E29">
+        <v>-0.0552845568273827</v>
+      </c>
+      <c r="F29">
+        <v>0.000581070743830067</v>
+      </c>
+      <c r="G29">
+        <v>0.0004465047888546675</v>
+      </c>
+      <c r="H29">
+        <v>0.08333896592034815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1262476715327867</v>
+        <v>-0.1329813963833439</v>
       </c>
       <c r="C30">
-        <v>-0.09691313585450427</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06460480568329793</v>
+      </c>
+      <c r="D30">
+        <v>-0.07059974264610647</v>
+      </c>
+      <c r="E30">
+        <v>-0.08365172980894528</v>
+      </c>
+      <c r="F30">
+        <v>-0.01780441506168606</v>
+      </c>
+      <c r="G30">
+        <v>0.0724548779883359</v>
+      </c>
+      <c r="H30">
+        <v>-0.0143446012593371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04247536264923435</v>
+        <v>-0.04866753498872285</v>
       </c>
       <c r="C31">
-        <v>-0.02038052962859844</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01181128337983245</v>
+      </c>
+      <c r="D31">
+        <v>-0.02424634114158133</v>
+      </c>
+      <c r="E31">
+        <v>-0.02861373660206674</v>
+      </c>
+      <c r="F31">
+        <v>0.007921144548758806</v>
+      </c>
+      <c r="G31">
+        <v>-0.01893765424394694</v>
+      </c>
+      <c r="H31">
+        <v>0.07139222442801506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03505053529865244</v>
+        <v>-0.03808156068638884</v>
       </c>
       <c r="C32">
-        <v>-0.0224151949098302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.0159863566183395</v>
+      </c>
+      <c r="D32">
+        <v>-0.01164185905327066</v>
+      </c>
+      <c r="E32">
+        <v>-0.06872942244004721</v>
+      </c>
+      <c r="F32">
+        <v>-0.02066511432052726</v>
+      </c>
+      <c r="G32">
+        <v>0.03499586994040086</v>
+      </c>
+      <c r="H32">
+        <v>0.06420805845248528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08104574746738268</v>
+        <v>-0.09516436171875785</v>
       </c>
       <c r="C33">
-        <v>-0.04475099282841474</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.02659881356139976</v>
+      </c>
+      <c r="D33">
+        <v>-0.05017463196372029</v>
+      </c>
+      <c r="E33">
+        <v>-0.01529608164433841</v>
+      </c>
+      <c r="F33">
+        <v>-0.0001927885077523159</v>
+      </c>
+      <c r="G33">
+        <v>-0.006607397532325168</v>
+      </c>
+      <c r="H33">
+        <v>0.07830109160678503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05539934439188148</v>
+        <v>-0.06153455146657026</v>
       </c>
       <c r="C34">
-        <v>-0.02921744791165516</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01356087527780766</v>
+      </c>
+      <c r="D34">
+        <v>-0.05455322495815706</v>
+      </c>
+      <c r="E34">
+        <v>-0.01120971316372817</v>
+      </c>
+      <c r="F34">
+        <v>0.0131059130769429</v>
+      </c>
+      <c r="G34">
+        <v>0.008154360545641498</v>
+      </c>
+      <c r="H34">
+        <v>0.06186855229494764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03716577797290942</v>
+        <v>-0.04007791485004442</v>
       </c>
       <c r="C35">
-        <v>-0.009362207916406599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.002231152419311923</v>
+      </c>
+      <c r="D35">
+        <v>-0.006374579792312706</v>
+      </c>
+      <c r="E35">
+        <v>-0.01828129452508519</v>
+      </c>
+      <c r="F35">
+        <v>-0.0154509887078271</v>
+      </c>
+      <c r="G35">
+        <v>-0.008979145995314491</v>
+      </c>
+      <c r="H35">
+        <v>0.0300668926068321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02019187684248189</v>
+        <v>-0.0269087715440233</v>
       </c>
       <c r="C36">
-        <v>-0.01745300983088513</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01363211025879241</v>
+      </c>
+      <c r="D36">
+        <v>-0.0122286388065561</v>
+      </c>
+      <c r="E36">
+        <v>-0.04493232499549435</v>
+      </c>
+      <c r="F36">
+        <v>0.01298809423024487</v>
+      </c>
+      <c r="G36">
+        <v>-0.005706520249177664</v>
+      </c>
+      <c r="H36">
+        <v>0.04944037670552316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03987474694729453</v>
+        <v>-0.04327351619875976</v>
       </c>
       <c r="C38">
-        <v>-0.003663901810913832</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.00283100924605807</v>
+      </c>
+      <c r="D38">
+        <v>-0.01616960895339414</v>
+      </c>
+      <c r="E38">
+        <v>-0.05650959481160873</v>
+      </c>
+      <c r="F38">
+        <v>-0.02117872771776629</v>
+      </c>
+      <c r="G38">
+        <v>0.01663829446531412</v>
+      </c>
+      <c r="H38">
+        <v>0.02070206863163162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09014937472080006</v>
+        <v>-0.1021970613134513</v>
       </c>
       <c r="C39">
-        <v>-0.07297276891019022</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.04943631612704705</v>
+      </c>
+      <c r="D39">
+        <v>-0.06614969437094399</v>
+      </c>
+      <c r="E39">
+        <v>-0.0004298175553580798</v>
+      </c>
+      <c r="F39">
+        <v>0.009406858140510269</v>
+      </c>
+      <c r="G39">
+        <v>0.03991829955832616</v>
+      </c>
+      <c r="H39">
+        <v>0.07424385300607021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0732216995726525</v>
+        <v>-0.07163662131001451</v>
       </c>
       <c r="C40">
-        <v>-0.04052371537402556</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.01934374170620793</v>
+      </c>
+      <c r="D40">
+        <v>-0.01227875231611537</v>
+      </c>
+      <c r="E40">
+        <v>-0.01992100638823597</v>
+      </c>
+      <c r="F40">
+        <v>-0.05459694977326079</v>
+      </c>
+      <c r="G40">
+        <v>0.04544848347292682</v>
+      </c>
+      <c r="H40">
+        <v>-0.06586215610340665</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04110613202644651</v>
+        <v>-0.04398762935159776</v>
       </c>
       <c r="C41">
-        <v>-0.00687328837054884</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.001466759227995925</v>
+      </c>
+      <c r="D41">
+        <v>-0.03433355199322533</v>
+      </c>
+      <c r="E41">
+        <v>-0.002951839057442251</v>
+      </c>
+      <c r="F41">
+        <v>-0.01529750335680972</v>
+      </c>
+      <c r="G41">
+        <v>0.01453255310002394</v>
+      </c>
+      <c r="H41">
+        <v>0.03806269013131287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04631298950432471</v>
+        <v>-0.05737503056983096</v>
       </c>
       <c r="C43">
-        <v>-0.02568441048401481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.01696597639979272</v>
+      </c>
+      <c r="D43">
+        <v>-0.02481335034162425</v>
+      </c>
+      <c r="E43">
+        <v>-0.0200784885357036</v>
+      </c>
+      <c r="F43">
+        <v>0.01072759844137553</v>
+      </c>
+      <c r="G43">
+        <v>-0.009561203424580861</v>
+      </c>
+      <c r="H43">
+        <v>0.05440138428069875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09442960182619237</v>
+        <v>-0.09376287161148868</v>
       </c>
       <c r="C44">
-        <v>-0.0965268345740134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06543808732544606</v>
+      </c>
+      <c r="D44">
+        <v>-0.06238474673040566</v>
+      </c>
+      <c r="E44">
+        <v>-0.09854619811781756</v>
+      </c>
+      <c r="F44">
+        <v>0.03490410706397481</v>
+      </c>
+      <c r="G44">
+        <v>0.02977586038230521</v>
+      </c>
+      <c r="H44">
+        <v>0.02138174824401781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02515383134650188</v>
+        <v>-0.03256526004381922</v>
       </c>
       <c r="C46">
-        <v>-0.01398151257233986</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.01023523821239254</v>
+      </c>
+      <c r="D46">
+        <v>-0.03009399652681224</v>
+      </c>
+      <c r="E46">
+        <v>-0.02977894047030937</v>
+      </c>
+      <c r="F46">
+        <v>0.01585319068419261</v>
+      </c>
+      <c r="G46">
+        <v>0.007236446053017528</v>
+      </c>
+      <c r="H46">
+        <v>0.03655542470726855</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0286688799963848</v>
+        <v>-0.03694231448548932</v>
       </c>
       <c r="C47">
-        <v>-0.02566525220965536</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.02077388927383173</v>
+      </c>
+      <c r="D47">
+        <v>-0.01233370978463546</v>
+      </c>
+      <c r="E47">
+        <v>-0.05351801984552765</v>
+      </c>
+      <c r="F47">
+        <v>0.005059722041666941</v>
+      </c>
+      <c r="G47">
+        <v>-0.0404215375480964</v>
+      </c>
+      <c r="H47">
+        <v>0.01890704881032432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03119760905174734</v>
+        <v>-0.03676901909485279</v>
       </c>
       <c r="C48">
-        <v>-0.01619014994774589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.009242659024946925</v>
+      </c>
+      <c r="D48">
+        <v>-0.01963244623751351</v>
+      </c>
+      <c r="E48">
+        <v>-0.04279239341974452</v>
+      </c>
+      <c r="F48">
+        <v>-0.001036521414941223</v>
+      </c>
+      <c r="G48">
+        <v>0.01383437803883707</v>
+      </c>
+      <c r="H48">
+        <v>0.05032235494544787</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1620897018423924</v>
+        <v>-0.1907210564127004</v>
       </c>
       <c r="C49">
-        <v>-0.06633905100401137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.0352316257927572</v>
+      </c>
+      <c r="D49">
+        <v>-0.03236922116845997</v>
+      </c>
+      <c r="E49">
+        <v>0.1427825175798999</v>
+      </c>
+      <c r="F49">
+        <v>0.07481154163396386</v>
+      </c>
+      <c r="G49">
+        <v>-0.06927466932060203</v>
+      </c>
+      <c r="H49">
+        <v>-0.2314794468562173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03785584495205314</v>
+        <v>-0.04503450564507188</v>
       </c>
       <c r="C50">
-        <v>-0.02307853623261926</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.01579168675807842</v>
+      </c>
+      <c r="D50">
+        <v>-0.03009502399713862</v>
+      </c>
+      <c r="E50">
+        <v>-0.05370402624104346</v>
+      </c>
+      <c r="F50">
+        <v>0.00826483854047423</v>
+      </c>
+      <c r="G50">
+        <v>-0.01565176605505149</v>
+      </c>
+      <c r="H50">
+        <v>0.06296713395392015</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02490075668006454</v>
+        <v>-0.02868266872840905</v>
       </c>
       <c r="C51">
-        <v>-0.007819888370613533</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.003889532167041753</v>
+      </c>
+      <c r="D51">
+        <v>-0.01683760033862799</v>
+      </c>
+      <c r="E51">
+        <v>-0.0154343851011966</v>
+      </c>
+      <c r="F51">
+        <v>0.01918962612002334</v>
+      </c>
+      <c r="G51">
+        <v>0.001166156714635398</v>
+      </c>
+      <c r="H51">
+        <v>-0.01377620325037521</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1519149973436304</v>
+        <v>-0.1627233470432816</v>
       </c>
       <c r="C53">
-        <v>-0.08451732658460838</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.05345785391728804</v>
+      </c>
+      <c r="D53">
+        <v>-0.01682821751253267</v>
+      </c>
+      <c r="E53">
+        <v>0.02294777664775792</v>
+      </c>
+      <c r="F53">
+        <v>0.01729317034636313</v>
+      </c>
+      <c r="G53">
+        <v>-0.001662789098433413</v>
+      </c>
+      <c r="H53">
+        <v>0.1537317140085314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05562012936696999</v>
+        <v>-0.05781418240543949</v>
       </c>
       <c r="C54">
-        <v>-0.02441548222016892</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.01198518581715078</v>
+      </c>
+      <c r="D54">
+        <v>-0.01563468424793857</v>
+      </c>
+      <c r="E54">
+        <v>-0.05038550544556158</v>
+      </c>
+      <c r="F54">
+        <v>0.004068301571160903</v>
+      </c>
+      <c r="G54">
+        <v>0.01622657394932766</v>
+      </c>
+      <c r="H54">
+        <v>0.05674856462146493</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09993900888257523</v>
+        <v>-0.1044133758654052</v>
       </c>
       <c r="C55">
-        <v>-0.05872291749605864</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.03649772115035528</v>
+      </c>
+      <c r="D55">
+        <v>-0.02182338344334149</v>
+      </c>
+      <c r="E55">
+        <v>-0.01725883108925342</v>
+      </c>
+      <c r="F55">
+        <v>0.01609848958269441</v>
+      </c>
+      <c r="G55">
+        <v>0.009421491557253421</v>
+      </c>
+      <c r="H55">
+        <v>0.1403268690620149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1453533584319676</v>
+        <v>-0.1597479533130717</v>
       </c>
       <c r="C56">
-        <v>-0.09421826340036275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.06398405505226733</v>
+      </c>
+      <c r="D56">
+        <v>-0.0196915340637866</v>
+      </c>
+      <c r="E56">
+        <v>0.02346866322386085</v>
+      </c>
+      <c r="F56">
+        <v>0.03464943699234915</v>
+      </c>
+      <c r="G56">
+        <v>-0.007014406497158456</v>
+      </c>
+      <c r="H56">
+        <v>0.1599385500070866</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1198072097022189</v>
+        <v>-0.09748579628475605</v>
       </c>
       <c r="C58">
-        <v>-0.007012447389157141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.03335877718929902</v>
+      </c>
+      <c r="D58">
+        <v>-0.04002971243213883</v>
+      </c>
+      <c r="E58">
+        <v>-0.1659230800124891</v>
+      </c>
+      <c r="F58">
+        <v>-0.0163433522134321</v>
+      </c>
+      <c r="G58">
+        <v>-0.06216694834955526</v>
+      </c>
+      <c r="H58">
+        <v>-0.1712796815081053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1151084024931414</v>
+        <v>-0.1382928127220661</v>
       </c>
       <c r="C59">
-        <v>-0.07899599211763003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.0852749187445086</v>
+      </c>
+      <c r="D59">
+        <v>0.3622327817302609</v>
+      </c>
+      <c r="E59">
+        <v>-0.02508922246442068</v>
+      </c>
+      <c r="F59">
+        <v>0.01460144263289306</v>
+      </c>
+      <c r="G59">
+        <v>-0.04549122294219198</v>
+      </c>
+      <c r="H59">
+        <v>-0.005799463691798527</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2021281763967164</v>
+        <v>-0.2314762199463025</v>
       </c>
       <c r="C60">
-        <v>-0.1073810638593784</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.06791567693166765</v>
+      </c>
+      <c r="D60">
+        <v>-0.04087236415010867</v>
+      </c>
+      <c r="E60">
+        <v>0.0904591027626297</v>
+      </c>
+      <c r="F60">
+        <v>0.07380396562129818</v>
+      </c>
+      <c r="G60">
+        <v>0.01298236505259655</v>
+      </c>
+      <c r="H60">
+        <v>-0.1751442626829982</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07855461702599593</v>
+        <v>-0.08750188500788376</v>
       </c>
       <c r="C61">
-        <v>-0.05164157990033284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03470085986658145</v>
+      </c>
+      <c r="D61">
+        <v>-0.04443487790708823</v>
+      </c>
+      <c r="E61">
+        <v>0.0005344544558948998</v>
+      </c>
+      <c r="F61">
+        <v>0.003238177499850912</v>
+      </c>
+      <c r="G61">
+        <v>0.003335835962220206</v>
+      </c>
+      <c r="H61">
+        <v>0.07416660930757321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1281686436306105</v>
+        <v>-0.1401473449604098</v>
       </c>
       <c r="C62">
-        <v>-0.06986223477139666</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.04281636155566279</v>
+      </c>
+      <c r="D62">
+        <v>-0.02636731967724805</v>
+      </c>
+      <c r="E62">
+        <v>0.0611185016046152</v>
+      </c>
+      <c r="F62">
+        <v>0.0241976387979447</v>
+      </c>
+      <c r="G62">
+        <v>0.02784332041518564</v>
+      </c>
+      <c r="H62">
+        <v>0.1527976862862403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05077361535821413</v>
+        <v>-0.05023263524277714</v>
       </c>
       <c r="C63">
-        <v>-0.0262660601587177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.01345635503010154</v>
+      </c>
+      <c r="D63">
+        <v>-0.0189812371689575</v>
+      </c>
+      <c r="E63">
+        <v>-0.0509421297294622</v>
+      </c>
+      <c r="F63">
+        <v>-0.01336238263567454</v>
+      </c>
+      <c r="G63">
+        <v>0.03402203218459436</v>
+      </c>
+      <c r="H63">
+        <v>0.05888347598442416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1077886628956881</v>
+        <v>-0.1095981615621655</v>
       </c>
       <c r="C64">
-        <v>-0.02847537795295607</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.004316180873135438</v>
+      </c>
+      <c r="D64">
+        <v>-0.03955481304599484</v>
+      </c>
+      <c r="E64">
+        <v>-0.04387422585287841</v>
+      </c>
+      <c r="F64">
+        <v>0.04223069085379125</v>
+      </c>
+      <c r="G64">
+        <v>0.05018491220661259</v>
+      </c>
+      <c r="H64">
+        <v>0.05787824498216148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.120270870766777</v>
+        <v>-0.1270946503577671</v>
       </c>
       <c r="C65">
-        <v>-0.0631425207770752</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.03906747990771326</v>
+      </c>
+      <c r="D65">
+        <v>0.0007642541439316091</v>
+      </c>
+      <c r="E65">
+        <v>-0.009252469664684574</v>
+      </c>
+      <c r="F65">
+        <v>0.06713991442626005</v>
+      </c>
+      <c r="G65">
+        <v>0.05302918137084981</v>
+      </c>
+      <c r="H65">
+        <v>-0.1142490581615761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1411030576961867</v>
+        <v>-0.1535418539462421</v>
       </c>
       <c r="C66">
-        <v>-0.07833656803389442</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.04476505492159619</v>
+      </c>
+      <c r="D66">
+        <v>-0.1019552132709482</v>
+      </c>
+      <c r="E66">
+        <v>0.02850449884794743</v>
+      </c>
+      <c r="F66">
+        <v>0.01837133514470828</v>
+      </c>
+      <c r="G66">
+        <v>0.05098827077178729</v>
+      </c>
+      <c r="H66">
+        <v>0.1534573722898475</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07243761182080588</v>
+        <v>-0.0823734990955661</v>
       </c>
       <c r="C67">
-        <v>-0.01592025518259476</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.004059498143532065</v>
+      </c>
+      <c r="D67">
+        <v>-0.03025001024680191</v>
+      </c>
+      <c r="E67">
+        <v>-0.02769667943098829</v>
+      </c>
+      <c r="F67">
+        <v>0.008964863167694365</v>
+      </c>
+      <c r="G67">
+        <v>-0.005652190869462029</v>
+      </c>
+      <c r="H67">
+        <v>0.01918804472186536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05955444037581579</v>
+        <v>-0.05999989673079273</v>
       </c>
       <c r="C68">
-        <v>-0.05090837968116056</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.05608571410134491</v>
+      </c>
+      <c r="D68">
+        <v>0.2695569231371057</v>
+      </c>
+      <c r="E68">
+        <v>-0.03748565974991538</v>
+      </c>
+      <c r="F68">
+        <v>0.01439518223028071</v>
+      </c>
+      <c r="G68">
+        <v>-0.01592154968900449</v>
+      </c>
+      <c r="H68">
+        <v>0.008526600898657586</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05282625466326692</v>
+        <v>-0.05299372095104989</v>
       </c>
       <c r="C69">
-        <v>-0.02035966915846489</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.00558037407786563</v>
+      </c>
+      <c r="D69">
+        <v>-0.01721806778832966</v>
+      </c>
+      <c r="E69">
+        <v>-0.02565040288165273</v>
+      </c>
+      <c r="F69">
+        <v>-0.009545076783688397</v>
+      </c>
+      <c r="G69">
+        <v>-0.01168045390020415</v>
+      </c>
+      <c r="H69">
+        <v>0.05128875599401457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.005034721169817721</v>
+        <v>-0.02669616640523198</v>
       </c>
       <c r="C70">
-        <v>0.004105483290045142</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.0009090943946376995</v>
+      </c>
+      <c r="D70">
+        <v>-0.001476360048418866</v>
+      </c>
+      <c r="E70">
+        <v>0.0246899731481899</v>
+      </c>
+      <c r="F70">
+        <v>0.03136233559853868</v>
+      </c>
+      <c r="G70">
+        <v>-0.02328859431955529</v>
+      </c>
+      <c r="H70">
+        <v>-0.05515149047101175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.06126299383759141</v>
+        <v>-0.06336195176352161</v>
       </c>
       <c r="C71">
-        <v>-0.05074042009413453</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.0584346452618072</v>
+      </c>
+      <c r="D71">
+        <v>0.2968242464883509</v>
+      </c>
+      <c r="E71">
+        <v>-0.03235422743332703</v>
+      </c>
+      <c r="F71">
+        <v>0.04401186701033183</v>
+      </c>
+      <c r="G71">
+        <v>-0.003056757873598761</v>
+      </c>
+      <c r="H71">
+        <v>0.01672704937610949</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1373253763538383</v>
+        <v>-0.1480089950302782</v>
       </c>
       <c r="C72">
-        <v>-0.0658383834424271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.03704421924180668</v>
+      </c>
+      <c r="D72">
+        <v>0.01072609837455159</v>
+      </c>
+      <c r="E72">
+        <v>0.1237599472005363</v>
+      </c>
+      <c r="F72">
+        <v>-0.1520852438339703</v>
+      </c>
+      <c r="G72">
+        <v>0.1142312247166602</v>
+      </c>
+      <c r="H72">
+        <v>0.0213313819720097</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.266982245718181</v>
+        <v>-0.2855244293790873</v>
       </c>
       <c r="C73">
-        <v>-0.1180488922559899</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.05028150124890927</v>
+      </c>
+      <c r="D73">
+        <v>-0.1061962538542932</v>
+      </c>
+      <c r="E73">
+        <v>0.2064183874956151</v>
+      </c>
+      <c r="F73">
+        <v>0.1199838947766932</v>
+      </c>
+      <c r="G73">
+        <v>-0.2052927678575127</v>
+      </c>
+      <c r="H73">
+        <v>-0.4727744404630788</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07926390660876223</v>
+        <v>-0.09254979261435854</v>
       </c>
       <c r="C74">
-        <v>-0.07931993069689093</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.05919959835563234</v>
+      </c>
+      <c r="D74">
+        <v>-0.03041396015626496</v>
+      </c>
+      <c r="E74">
+        <v>0.005933662640291873</v>
+      </c>
+      <c r="F74">
+        <v>-0.009056527574731934</v>
+      </c>
+      <c r="G74">
+        <v>-0.03131151175771486</v>
+      </c>
+      <c r="H74">
+        <v>0.1259648665097902</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09475418616323084</v>
+        <v>-0.1010889709174315</v>
       </c>
       <c r="C75">
-        <v>-0.05696876206318872</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02978133485290573</v>
+      </c>
+      <c r="D75">
+        <v>-0.01104444568310826</v>
+      </c>
+      <c r="E75">
+        <v>-0.008934692595547808</v>
+      </c>
+      <c r="F75">
+        <v>0.02941449696488603</v>
+      </c>
+      <c r="G75">
+        <v>-0.008220571510166925</v>
+      </c>
+      <c r="H75">
+        <v>0.1122983098273616</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1281286438550255</v>
+        <v>-0.1398275645792488</v>
       </c>
       <c r="C76">
-        <v>-0.08696733112811578</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.05714102918570636</v>
+      </c>
+      <c r="D76">
+        <v>-0.04968062206306706</v>
+      </c>
+      <c r="E76">
+        <v>-0.03355225883493322</v>
+      </c>
+      <c r="F76">
+        <v>0.04403807038647279</v>
+      </c>
+      <c r="G76">
+        <v>0.004846491034350842</v>
+      </c>
+      <c r="H76">
+        <v>0.1567269826438283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1192506132679902</v>
+        <v>-0.1136283251296839</v>
       </c>
       <c r="C77">
-        <v>-0.02545770238612536</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.003934774699565223</v>
+      </c>
+      <c r="D77">
+        <v>-0.01287378064281644</v>
+      </c>
+      <c r="E77">
+        <v>-0.007091824201570973</v>
+      </c>
+      <c r="F77">
+        <v>0.1541996997947866</v>
+      </c>
+      <c r="G77">
+        <v>0.8764938970452965</v>
+      </c>
+      <c r="H77">
+        <v>-0.2274226373220855</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0960522465327202</v>
+        <v>-0.135053322941039</v>
       </c>
       <c r="C78">
-        <v>-0.0427300198064329</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03396581090875317</v>
+      </c>
+      <c r="D78">
+        <v>-0.09683913456691891</v>
+      </c>
+      <c r="E78">
+        <v>-0.06069843927323353</v>
+      </c>
+      <c r="F78">
+        <v>0.01848790125856406</v>
+      </c>
+      <c r="G78">
+        <v>0.05212467494021912</v>
+      </c>
+      <c r="H78">
+        <v>-0.05454884401753965</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.145408751273969</v>
+        <v>-0.1516584731973384</v>
       </c>
       <c r="C79">
-        <v>-0.08409887590080993</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.04693657029951325</v>
+      </c>
+      <c r="D79">
+        <v>-0.02677618129552575</v>
+      </c>
+      <c r="E79">
+        <v>0.01139036302091963</v>
+      </c>
+      <c r="F79">
+        <v>0.01771664059549589</v>
+      </c>
+      <c r="G79">
+        <v>-0.02326134630009408</v>
+      </c>
+      <c r="H79">
+        <v>0.1613387828960917</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04384514488164769</v>
+        <v>-0.04231473295003793</v>
       </c>
       <c r="C80">
-        <v>-0.01660179007852011</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.005936898499550058</v>
+      </c>
+      <c r="D80">
+        <v>-0.02036828654735335</v>
+      </c>
+      <c r="E80">
+        <v>0.005137750095825077</v>
+      </c>
+      <c r="F80">
+        <v>-0.009846350362593971</v>
+      </c>
+      <c r="G80">
+        <v>-0.03074752923330897</v>
+      </c>
+      <c r="H80">
+        <v>0.04908701384276706</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1169327870229419</v>
+        <v>-0.1213921141171978</v>
       </c>
       <c r="C81">
-        <v>-0.06790979910894521</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.03739612081017212</v>
+      </c>
+      <c r="D81">
+        <v>-0.02072732697621042</v>
+      </c>
+      <c r="E81">
+        <v>-0.02854966949528335</v>
+      </c>
+      <c r="F81">
+        <v>0.01194022102414384</v>
+      </c>
+      <c r="G81">
+        <v>-0.03481238156033317</v>
+      </c>
+      <c r="H81">
+        <v>0.1614993631364503</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1272400355966992</v>
+        <v>-0.130165915121903</v>
       </c>
       <c r="C82">
-        <v>-0.08102891123566588</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.0492074368622601</v>
+      </c>
+      <c r="D82">
+        <v>-0.02747206021050809</v>
+      </c>
+      <c r="E82">
+        <v>0.01007339745228268</v>
+      </c>
+      <c r="F82">
+        <v>0.05594954727170964</v>
+      </c>
+      <c r="G82">
+        <v>-0.03183524779657046</v>
+      </c>
+      <c r="H82">
+        <v>0.1876991882738453</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07979547509011975</v>
+        <v>-0.08786870686379779</v>
       </c>
       <c r="C83">
-        <v>0.0006659234432000249</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.01876098407793153</v>
+      </c>
+      <c r="D83">
+        <v>-0.04041616572330536</v>
+      </c>
+      <c r="E83">
+        <v>-0.02639662985586594</v>
+      </c>
+      <c r="F83">
+        <v>0.04692667777787148</v>
+      </c>
+      <c r="G83">
+        <v>-0.09344814798563347</v>
+      </c>
+      <c r="H83">
+        <v>-0.06847746254259945</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02862272179554012</v>
+        <v>-0.0390425677221799</v>
       </c>
       <c r="C84">
-        <v>-0.02589569832303387</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.02056769969455404</v>
+      </c>
+      <c r="D84">
+        <v>-0.02899987838767702</v>
+      </c>
+      <c r="E84">
+        <v>-0.02343759678234601</v>
+      </c>
+      <c r="F84">
+        <v>-0.05361812597968212</v>
+      </c>
+      <c r="G84">
+        <v>-0.05319520016843227</v>
+      </c>
+      <c r="H84">
+        <v>0.02801873623582189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1180396871295503</v>
+        <v>-0.1196622364946166</v>
       </c>
       <c r="C85">
-        <v>-0.06366826275439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.03184837066896472</v>
+      </c>
+      <c r="D85">
+        <v>-0.02403707560484247</v>
+      </c>
+      <c r="E85">
+        <v>-0.02197640514512169</v>
+      </c>
+      <c r="F85">
+        <v>0.03949222994966933</v>
+      </c>
+      <c r="G85">
+        <v>-0.01005328415753484</v>
+      </c>
+      <c r="H85">
+        <v>0.1486398206811283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05134037145641521</v>
+        <v>-0.05916040386561774</v>
       </c>
       <c r="C86">
-        <v>-0.03015852828610002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.01831807466487695</v>
+      </c>
+      <c r="D86">
+        <v>-0.02090991803141283</v>
+      </c>
+      <c r="E86">
+        <v>-0.0623500868009715</v>
+      </c>
+      <c r="F86">
+        <v>0.0291335243287381</v>
+      </c>
+      <c r="G86">
+        <v>-0.01042398198030377</v>
+      </c>
+      <c r="H86">
+        <v>0.01104710499381395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1204760036810952</v>
+        <v>-0.1219753283003742</v>
       </c>
       <c r="C87">
-        <v>-0.07234452718699999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.03513209432295952</v>
+      </c>
+      <c r="D87">
+        <v>-0.07578290392582789</v>
+      </c>
+      <c r="E87">
+        <v>-0.02080248031381264</v>
+      </c>
+      <c r="F87">
+        <v>-0.003652456753643721</v>
+      </c>
+      <c r="G87">
+        <v>0.1096653146242291</v>
+      </c>
+      <c r="H87">
+        <v>-0.01991106408411492</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05342629989276762</v>
+        <v>-0.06087907121054412</v>
       </c>
       <c r="C88">
-        <v>-0.03040834097915977</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.01887462318319704</v>
+      </c>
+      <c r="D88">
+        <v>-0.02783002732159791</v>
+      </c>
+      <c r="E88">
+        <v>-0.02041948416016896</v>
+      </c>
+      <c r="F88">
+        <v>0.007738968100938058</v>
+      </c>
+      <c r="G88">
+        <v>0.01439230197756839</v>
+      </c>
+      <c r="H88">
+        <v>0.05579176313474752</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08157587843246404</v>
+        <v>-0.09439003073158746</v>
       </c>
       <c r="C89">
-        <v>-0.06677633390269161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.0765227010153324</v>
+      </c>
+      <c r="D89">
+        <v>0.3426874131458722</v>
+      </c>
+      <c r="E89">
+        <v>-0.07127531468113646</v>
+      </c>
+      <c r="F89">
+        <v>0.07902915033891333</v>
+      </c>
+      <c r="G89">
+        <v>-0.02040108462051686</v>
+      </c>
+      <c r="H89">
+        <v>0.01142275856867389</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07361312020031582</v>
+        <v>-0.08102611786933435</v>
       </c>
       <c r="C90">
-        <v>-0.05961918216300108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.0667071265564278</v>
+      </c>
+      <c r="D90">
+        <v>0.3100733253625146</v>
+      </c>
+      <c r="E90">
+        <v>-0.06058070586060135</v>
+      </c>
+      <c r="F90">
+        <v>0.0006528643340340953</v>
+      </c>
+      <c r="G90">
+        <v>-0.004817425602196554</v>
+      </c>
+      <c r="H90">
+        <v>0.009428776139834007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.0836307772474995</v>
+        <v>-0.08976053687642285</v>
       </c>
       <c r="C91">
-        <v>-0.05570199309500905</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.03316851228779434</v>
+      </c>
+      <c r="D91">
+        <v>-0.03028448529178842</v>
+      </c>
+      <c r="E91">
+        <v>-0.01461214323766925</v>
+      </c>
+      <c r="F91">
+        <v>0.003776381298785215</v>
+      </c>
+      <c r="G91">
+        <v>-0.0463927181601602</v>
+      </c>
+      <c r="H91">
+        <v>0.07750840810213491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07482263493424865</v>
+        <v>-0.08165138866224392</v>
       </c>
       <c r="C92">
-        <v>-0.07300845604684862</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.08036796648885491</v>
+      </c>
+      <c r="D92">
+        <v>0.3409320118439187</v>
+      </c>
+      <c r="E92">
+        <v>-0.04852346816522281</v>
+      </c>
+      <c r="F92">
+        <v>0.03541339776496039</v>
+      </c>
+      <c r="G92">
+        <v>0.003282704268736818</v>
+      </c>
+      <c r="H92">
+        <v>0.01983221269016794</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06624200787231478</v>
+        <v>-0.07956116276137008</v>
       </c>
       <c r="C93">
-        <v>-0.06529926527901664</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.07750915486192524</v>
+      </c>
+      <c r="D93">
+        <v>0.3074825218424416</v>
+      </c>
+      <c r="E93">
+        <v>-0.03722334243562806</v>
+      </c>
+      <c r="F93">
+        <v>0.04110478168891572</v>
+      </c>
+      <c r="G93">
+        <v>0.007303877699938675</v>
+      </c>
+      <c r="H93">
+        <v>-0.008565855683839331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1327288780141273</v>
+        <v>-0.1278919199823727</v>
       </c>
       <c r="C94">
-        <v>-0.06103588440539227</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.02232596189807048</v>
+      </c>
+      <c r="D94">
+        <v>-0.04494224016994799</v>
+      </c>
+      <c r="E94">
+        <v>0.00425845820671631</v>
+      </c>
+      <c r="F94">
+        <v>0.02148963976990113</v>
+      </c>
+      <c r="G94">
+        <v>-0.04022972936966145</v>
+      </c>
+      <c r="H94">
+        <v>0.106597531487175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1182758912939955</v>
+        <v>-0.1288915229714492</v>
       </c>
       <c r="C95">
-        <v>-0.03890149564079359</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.009512774345552602</v>
+      </c>
+      <c r="D95">
+        <v>-0.05966707611719485</v>
+      </c>
+      <c r="E95">
+        <v>-0.01208172759243631</v>
+      </c>
+      <c r="F95">
+        <v>0.04831492314671351</v>
+      </c>
+      <c r="G95">
+        <v>-0.0187667436559678</v>
+      </c>
+      <c r="H95">
+        <v>-0.03083946620755388</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2002842646647823</v>
+        <v>-0.2096406717407695</v>
       </c>
       <c r="C97">
-        <v>-0.0447120254013585</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.004210539199822993</v>
+      </c>
+      <c r="D97">
+        <v>0.08991358699450096</v>
+      </c>
+      <c r="E97">
+        <v>0.3288393698949284</v>
+      </c>
+      <c r="F97">
+        <v>-0.8588707513481461</v>
+      </c>
+      <c r="G97">
+        <v>0.102634317930178</v>
+      </c>
+      <c r="H97">
+        <v>-0.003653782392639438</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.245066214414916</v>
+        <v>-0.2737783896317456</v>
       </c>
       <c r="C98">
-        <v>-0.08741930873660089</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.03689219554684543</v>
+      </c>
+      <c r="D98">
+        <v>-0.06712966003420072</v>
+      </c>
+      <c r="E98">
+        <v>0.1567724670185909</v>
+      </c>
+      <c r="F98">
+        <v>0.07802907241450302</v>
+      </c>
+      <c r="G98">
+        <v>-0.2837411102917917</v>
+      </c>
+      <c r="H98">
+        <v>-0.2596617728271963</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4697186946834251</v>
+        <v>-0.2852598156461028</v>
       </c>
       <c r="C99">
-        <v>0.8679190044099623</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9364672126153126</v>
+      </c>
+      <c r="D99">
+        <v>0.1241544047023341</v>
+      </c>
+      <c r="E99">
+        <v>-0.06705138580353312</v>
+      </c>
+      <c r="F99">
+        <v>0.04226928990364614</v>
+      </c>
+      <c r="G99">
+        <v>-0.01432403480916148</v>
+      </c>
+      <c r="H99">
+        <v>0.06333654572784651</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04058562539209678</v>
+        <v>-0.04862163488529088</v>
       </c>
       <c r="C101">
-        <v>-0.03238082802431931</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02596238074686634</v>
+      </c>
+      <c r="D101">
+        <v>-0.004825851011243426</v>
+      </c>
+      <c r="E101">
+        <v>-0.05434513073466037</v>
+      </c>
+      <c r="F101">
+        <v>0.0001062629551492576</v>
+      </c>
+      <c r="G101">
+        <v>0.0003019583165098631</v>
+      </c>
+      <c r="H101">
+        <v>0.0826679178910371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
